--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed5/result_data_KNN.xlsx
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.144</v>
+        <v>-7.328999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.596</v>
+        <v>-8.794</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.994</v>
+        <v>-8.010000000000002</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.758000000000001</v>
+        <v>-8.051</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.998</v>
+        <v>-7.662000000000001</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.43</v>
+        <v>-8.122</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.312000000000001</v>
+        <v>-8.558</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.018000000000001</v>
+        <v>-8.129000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.986</v>
+        <v>-8.403</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.029999999999998</v>
+        <v>-7.281000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.029999999999999</v>
+        <v>-7.321000000000001</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.145999999999999</v>
+        <v>-7.434</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.356</v>
+        <v>-8.047000000000001</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.111999999999998</v>
+        <v>-8.118999999999998</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.352</v>
+        <v>-6.970000000000001</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.636</v>
+        <v>-7.568</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.488</v>
+        <v>-8.019</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
